--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubofurto/cv123053a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubofurto/cv123053a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1.212500302730626</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1.145661632051496</v>
+      </c>
+      <c r="C5">
+        <v>1.156880995261971</v>
+      </c>
+      <c r="D5">
+        <v>1.181671129500895</v>
+      </c>
+      <c r="E5">
+        <v>2.7649260651276</v>
+      </c>
+      <c r="F5">
+        <v>1.870177508657227</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>1.145661632051496</v>
+        <v>4.297580439408661</v>
       </c>
       <c r="C6">
-        <v>1.156880995261971</v>
+        <v>4.299737254468853</v>
       </c>
       <c r="D6">
-        <v>1.181671129500895</v>
+        <v>4.208156082317207</v>
       </c>
       <c r="E6">
-        <v>2.7649260651276</v>
+        <v>17.14617344863522</v>
       </c>
       <c r="F6">
-        <v>1.870177508657227</v>
+        <v>7.691198541964008</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>4.297580439408661</v>
+        <v>3.123548304552231</v>
       </c>
       <c r="C7">
-        <v>4.299737254468853</v>
+        <v>3.219637770235875</v>
       </c>
       <c r="D7">
-        <v>4.208156082317207</v>
+        <v>3.203334098442626</v>
       </c>
       <c r="E7">
-        <v>17.14617344863522</v>
+        <v>6.328837797508157</v>
       </c>
       <c r="F7">
-        <v>7.691198541964008</v>
+        <v>4.044558324972398</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>7.457958762790273</v>
+      </c>
+      <c r="C8">
+        <v>7.391551771513922</v>
+      </c>
+      <c r="D8">
+        <v>7.471400411819488</v>
+      </c>
+      <c r="E8">
+        <v>23.29642086535035</v>
+      </c>
+      <c r="F8">
+        <v>10.85505399550367</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>3.123548304552231</v>
+        <v>7.60708826747242</v>
       </c>
       <c r="C9">
-        <v>3.219637770235875</v>
+        <v>5.818125659619507</v>
       </c>
       <c r="D9">
-        <v>3.203334098442626</v>
+        <v>5.584935384191996</v>
       </c>
       <c r="E9">
-        <v>6.328837797508157</v>
+        <v>40.5189079328764</v>
       </c>
       <c r="F9">
-        <v>4.044558324972398</v>
+        <v>17.91829973917722</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>7.457958762790273</v>
+        <v>8.944400617505163</v>
       </c>
       <c r="C10">
-        <v>7.391551771513922</v>
+        <v>8.54166303868112</v>
       </c>
       <c r="D10">
-        <v>7.471400411819488</v>
+        <v>8.700220595539708</v>
       </c>
       <c r="E10">
-        <v>23.29642086535035</v>
+        <v>14.29213470151586</v>
       </c>
       <c r="F10">
-        <v>10.85505399550367</v>
+        <v>12.78606254723228</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>7.60708826747242</v>
+        <v>8.979938493501459</v>
       </c>
       <c r="C11">
-        <v>5.818125659619507</v>
+        <v>9.311316777208638</v>
       </c>
       <c r="D11">
-        <v>5.584935384191996</v>
+        <v>9.357576507810874</v>
       </c>
       <c r="E11">
-        <v>40.5189079328764</v>
+        <v>20.94084309040943</v>
       </c>
       <c r="F11">
-        <v>17.91829973917722</v>
+        <v>14.4777946678118</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>8.944400617505163</v>
+        <v>4.393502067887344</v>
       </c>
       <c r="C12">
-        <v>8.54166303868112</v>
+        <v>4.768856130920778</v>
       </c>
       <c r="D12">
-        <v>8.700220595539708</v>
+        <v>4.71459094787373</v>
       </c>
       <c r="E12">
-        <v>14.29213470151586</v>
+        <v>8.436693396819527</v>
       </c>
       <c r="F12">
-        <v>12.78606254723228</v>
+        <v>5.077848301021048</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>8.979938493501459</v>
+        <v>15.65351176339457</v>
       </c>
       <c r="C13">
-        <v>9.311316777208638</v>
+        <v>13.17903321948127</v>
       </c>
       <c r="D13">
-        <v>9.357576507810874</v>
+        <v>13.51463799164983</v>
       </c>
       <c r="E13">
-        <v>20.94084309040943</v>
+        <v>21.90673494482056</v>
       </c>
       <c r="F13">
-        <v>14.4777946678118</v>
+        <v>22.20672479611324</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>4.393502067887344</v>
+        <v>11.69076698192822</v>
       </c>
       <c r="C14">
-        <v>4.768856130920778</v>
+        <v>12.99381256933117</v>
       </c>
       <c r="D14">
-        <v>4.71459094787373</v>
+        <v>13.75083744859453</v>
       </c>
       <c r="E14">
-        <v>8.436693396819527</v>
+        <v>20.06589570178139</v>
       </c>
       <c r="F14">
-        <v>5.077848301021048</v>
+        <v>11.40931733130117</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>15.65351176339457</v>
+        <v>2.768933933325164</v>
       </c>
       <c r="C15">
-        <v>13.17903321948127</v>
+        <v>2.625363347835517</v>
       </c>
       <c r="D15">
-        <v>13.51463799164983</v>
+        <v>2.753976621784568</v>
       </c>
       <c r="E15">
-        <v>21.90673494482056</v>
+        <v>4.180071335710358</v>
       </c>
       <c r="F15">
-        <v>22.20672479611324</v>
+        <v>4.148899637853821</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>11.69076698192822</v>
+        <v>15.20955405204762</v>
       </c>
       <c r="C16">
-        <v>12.99381256933117</v>
+        <v>13.42330328667025</v>
       </c>
       <c r="D16">
-        <v>13.75083744859453</v>
+        <v>13.85473548748572</v>
       </c>
       <c r="E16">
-        <v>20.06589570178139</v>
+        <v>17.9687899469839</v>
       </c>
       <c r="F16">
-        <v>11.40931733130117</v>
+        <v>20.5950339517933</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>2.768933933325164</v>
+        <v>10.34036632483823</v>
       </c>
       <c r="C17">
-        <v>2.625363347835517</v>
+        <v>10.79807602759329</v>
       </c>
       <c r="D17">
-        <v>2.753976621784568</v>
+        <v>10.71764909554867</v>
       </c>
       <c r="E17">
-        <v>4.180071335710358</v>
+        <v>22.62769137896895</v>
       </c>
       <c r="F17">
-        <v>4.148899637853821</v>
+        <v>14.75882097814661</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>15.20955405204762</v>
+        <v>4.349682815868399</v>
       </c>
       <c r="C18">
-        <v>13.42330328667025</v>
+        <v>4.344369967951338</v>
       </c>
       <c r="D18">
-        <v>13.85473548748572</v>
+        <v>4.674992341755137</v>
       </c>
       <c r="E18">
-        <v>17.9687899469839</v>
+        <v>8.027632492920207</v>
       </c>
       <c r="F18">
-        <v>20.5950339517933</v>
+        <v>6.063867058011534</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>10.34036632483823</v>
+        <v>6.125812387708056</v>
       </c>
       <c r="C19">
-        <v>10.79807602759329</v>
+        <v>6.978120422126707</v>
       </c>
       <c r="D19">
-        <v>10.71764909554867</v>
+        <v>7.741113597378045</v>
       </c>
       <c r="E19">
-        <v>22.62769137896895</v>
+        <v>11.84284974639784</v>
       </c>
       <c r="F19">
-        <v>14.75882097814661</v>
+        <v>9.709402842217456</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>4.349682815868399</v>
+        <v>10.12123213870121</v>
       </c>
       <c r="C20">
-        <v>4.344369967951338</v>
+        <v>8.948318870104618</v>
       </c>
       <c r="D20">
-        <v>4.674992341755137</v>
+        <v>9.205290114986552</v>
       </c>
       <c r="E20">
-        <v>8.027632492920207</v>
+        <v>17.24413724604015</v>
       </c>
       <c r="F20">
-        <v>6.063867058011534</v>
+        <v>16.6112814403158</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>6.125812387708056</v>
+        <v>4.392379760276501</v>
       </c>
       <c r="C21">
-        <v>6.978120422126707</v>
+        <v>5.320309133634038</v>
       </c>
       <c r="D21">
-        <v>7.741113597378045</v>
+        <v>5.442347839748792</v>
       </c>
       <c r="E21">
-        <v>11.84284974639784</v>
+        <v>9.634477576327049</v>
       </c>
       <c r="F21">
-        <v>9.709402842217456</v>
+        <v>5.500600402760221</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>10.12123213870121</v>
+        <v>7.399851217963419</v>
       </c>
       <c r="C22">
-        <v>8.948318870104618</v>
+        <v>7.860711398825461</v>
       </c>
       <c r="D22">
-        <v>9.205290114986552</v>
+        <v>8.34840480144714</v>
       </c>
       <c r="E22">
-        <v>17.24413724604015</v>
+        <v>20.98584441600816</v>
       </c>
       <c r="F22">
-        <v>16.6112814403158</v>
+        <v>12.693508419245</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>4.392379760276501</v>
+        <v>6.467304310870898</v>
       </c>
       <c r="C23">
-        <v>5.320309133634038</v>
+        <v>7.82112266911668</v>
       </c>
       <c r="D23">
-        <v>5.442347839748792</v>
+        <v>9.04959147755941</v>
       </c>
       <c r="E23">
-        <v>9.634477576327049</v>
+        <v>14.75943740423863</v>
       </c>
       <c r="F23">
-        <v>5.500600402760221</v>
+        <v>7.595399205992895</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>7.399851217963419</v>
+        <v>3.997754251131183</v>
       </c>
       <c r="C24">
-        <v>7.860711398825461</v>
+        <v>4.186445184052</v>
       </c>
       <c r="D24">
-        <v>8.34840480144714</v>
+        <v>4.462082549419997</v>
       </c>
       <c r="E24">
-        <v>20.98584441600816</v>
+        <v>7.200288004072742</v>
       </c>
       <c r="F24">
-        <v>12.693508419245</v>
+        <v>6.370992334565606</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>6.467304310870898</v>
+        <v>1.949783176328272</v>
       </c>
       <c r="C25">
-        <v>7.82112266911668</v>
+        <v>2.01908331596897</v>
       </c>
       <c r="D25">
-        <v>9.04959147755941</v>
+        <v>2.044364876484723</v>
       </c>
       <c r="E25">
-        <v>14.75943740423863</v>
+        <v>5.296366941351486</v>
       </c>
       <c r="F25">
-        <v>7.595399205992895</v>
+        <v>3.23010395225716</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>3.997754251131183</v>
+        <v>3.813900408824891</v>
       </c>
       <c r="C26">
-        <v>4.186445184052</v>
+        <v>3.959532306390768</v>
       </c>
       <c r="D26">
-        <v>4.462082549419997</v>
+        <v>4.065603484712645</v>
       </c>
       <c r="E26">
-        <v>7.200288004072742</v>
+        <v>9.367589347564111</v>
       </c>
       <c r="F26">
-        <v>6.370992334565606</v>
+        <v>5.716322828761433</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>1.949783176328272</v>
+        <v>6.713185193158625</v>
       </c>
       <c r="C27">
-        <v>2.01908331596897</v>
+        <v>6.873814604505076</v>
       </c>
       <c r="D27">
-        <v>2.044364876484723</v>
+        <v>7.208720031159489</v>
       </c>
       <c r="E27">
-        <v>5.296366941351486</v>
+        <v>15.11515717476477</v>
       </c>
       <c r="F27">
-        <v>3.23010395225716</v>
+        <v>11.71074730283917</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>3.813900408824891</v>
+        <v>4.048160082848506</v>
       </c>
       <c r="C28">
-        <v>3.959532306390768</v>
+        <v>4.142986031891194</v>
       </c>
       <c r="D28">
-        <v>4.065603484712645</v>
+        <v>4.240582067456472</v>
       </c>
       <c r="E28">
-        <v>9.367589347564111</v>
+        <v>11.64045283963375</v>
       </c>
       <c r="F28">
-        <v>5.716322828761433</v>
+        <v>6.588875446715243</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>6.713185193158625</v>
+        <v>2.854537961624078</v>
       </c>
       <c r="C29">
-        <v>6.873814604505076</v>
+        <v>2.947868462690563</v>
       </c>
       <c r="D29">
-        <v>7.208720031159489</v>
+        <v>2.968193236142857</v>
       </c>
       <c r="E29">
-        <v>15.11515717476477</v>
+        <v>7.689038491434317</v>
       </c>
       <c r="F29">
-        <v>11.71074730283917</v>
+        <v>4.962776449971677</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>4.048160082848506</v>
+        <v>2.614024842371244</v>
       </c>
       <c r="C30">
-        <v>4.142986031891194</v>
+        <v>2.780488949469178</v>
       </c>
       <c r="D30">
-        <v>4.240582067456472</v>
+        <v>2.888791333116175</v>
       </c>
       <c r="E30">
-        <v>11.64045283963375</v>
+        <v>8.351474931314035</v>
       </c>
       <c r="F30">
-        <v>6.588875446715243</v>
+        <v>4.453341402688196</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>2.854537961624078</v>
+        <v>3.803530450850101</v>
       </c>
       <c r="C31">
-        <v>2.947868462690563</v>
+        <v>4.192312979862285</v>
       </c>
       <c r="D31">
-        <v>2.968193236142857</v>
+        <v>4.219203030740385</v>
       </c>
       <c r="E31">
-        <v>7.689038491434317</v>
+        <v>12.66700634482624</v>
       </c>
       <c r="F31">
-        <v>4.962776449971677</v>
+        <v>6.282511206537711</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>2.614024842371244</v>
+        <v>7.653380467414173</v>
       </c>
       <c r="C32">
-        <v>2.780488949469178</v>
+        <v>7.518213211089613</v>
       </c>
       <c r="D32">
-        <v>2.888791333116175</v>
+        <v>7.579054974184745</v>
       </c>
       <c r="E32">
-        <v>8.351474931314035</v>
+        <v>29.24632362141217</v>
       </c>
       <c r="F32">
-        <v>4.453341402688196</v>
+        <v>13.70889852768719</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>3.803530450850101</v>
+        <v>3.874509249795559</v>
       </c>
       <c r="C33">
-        <v>4.192312979862285</v>
+        <v>4.1674552472549</v>
       </c>
       <c r="D33">
-        <v>4.219203030740385</v>
+        <v>4.509478875707098</v>
       </c>
       <c r="E33">
-        <v>12.66700634482624</v>
+        <v>11.79756832639435</v>
       </c>
       <c r="F33">
-        <v>6.282511206537711</v>
+        <v>6.617505768167931</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>7.653380467414173</v>
+        <v>2.465058523066912</v>
       </c>
       <c r="C34">
-        <v>7.518213211089613</v>
+        <v>2.493463189624101</v>
       </c>
       <c r="D34">
-        <v>7.579054974184745</v>
+        <v>2.520968891499016</v>
       </c>
       <c r="E34">
-        <v>29.24632362141217</v>
+        <v>6.718686815699386</v>
       </c>
       <c r="F34">
-        <v>13.70889852768719</v>
+        <v>4.551321491637465</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>3.874509249795559</v>
+        <v>6.733447271752872</v>
       </c>
       <c r="C35">
-        <v>4.1674552472549</v>
+        <v>6.681555500384299</v>
       </c>
       <c r="D35">
-        <v>4.509478875707098</v>
+        <v>6.55325858541192</v>
       </c>
       <c r="E35">
-        <v>11.79756832639435</v>
+        <v>17.75077232911353</v>
       </c>
       <c r="F35">
-        <v>6.617505768167931</v>
+        <v>11.29896621015986</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>2.465058523066912</v>
+        <v>5.292400995243164</v>
       </c>
       <c r="C36">
-        <v>2.493463189624101</v>
+        <v>5.252730246141114</v>
       </c>
       <c r="D36">
-        <v>2.520968891499016</v>
+        <v>5.303349841495553</v>
       </c>
       <c r="E36">
-        <v>6.718686815699386</v>
+        <v>18.37048394441125</v>
       </c>
       <c r="F36">
-        <v>4.551321491637465</v>
+        <v>9.489615916156493</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>6.733447271752872</v>
+        <v>3.943963121034735</v>
       </c>
       <c r="C37">
-        <v>6.681555500384299</v>
+        <v>4.004129995155519</v>
       </c>
       <c r="D37">
-        <v>6.55325858541192</v>
+        <v>4.045521790620448</v>
       </c>
       <c r="E37">
-        <v>17.75077232911353</v>
+        <v>10.62605654954147</v>
       </c>
       <c r="F37">
-        <v>11.29896621015986</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>5.292400995243164</v>
-      </c>
-      <c r="C38">
-        <v>5.252730246141114</v>
-      </c>
-      <c r="D38">
-        <v>5.303349841495553</v>
-      </c>
-      <c r="E38">
-        <v>18.37048394441125</v>
-      </c>
-      <c r="F38">
-        <v>9.489615916156493</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>3.943963121034735</v>
-      </c>
-      <c r="C39">
-        <v>4.004129995155519</v>
-      </c>
-      <c r="D39">
-        <v>4.045521790620448</v>
-      </c>
-      <c r="E39">
-        <v>10.62605654954147</v>
-      </c>
-      <c r="F39">
         <v>8.088911763625003</v>
       </c>
     </row>
